--- a/134-readme-mettre-à-jour-le-tableau-des-ressources-utilisées/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
+++ b/134-readme-mettre-à-jour-le-tableau-des-ressources-utilisées/ig/StructureDefinition-esms-bundle-resultat-recherche-decision-evaluation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T12:57:24+00:00</t>
+    <t>2024-11-07T15:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
